--- a/TCGA-BRCA Application/Results/GO_KEGG_EA_results_for_Scenario_1.xlsx
+++ b/TCGA-BRCA Application/Results/GO_KEGG_EA_results_for_Scenario_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fatihki/UiO/WeibullMixtureCureM/Real_data_analysis_December2023_excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7219465-E022-BC40-938C-7C6800386DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D15C66-FCD3-AF40-BB14-0E7BF87BF7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28820" windowHeight="24440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="beta_p penMCFM(EM) method" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="237">
   <si>
     <t>ONTOLOGY</t>
   </si>
@@ -587,192 +587,15 @@
     <t>cellular response to xenobiotic stimulus</t>
   </si>
   <si>
-    <t>12/247</t>
-  </si>
-  <si>
     <t>189/18614</t>
   </si>
   <si>
-    <t>SOX10/UGT2B17/PON3/PRKAA2/CYP26A1/FMO2/UGT2B15/TH/CYP1A1/ALDH3A1/CYP2A13/BCHE</t>
-  </si>
-  <si>
-    <t>9/247</t>
-  </si>
-  <si>
-    <t>UGT2B17/PON3/CYP26A1/FMO2/UGT2B15/CYP1A1/ALDH3A1/CYP2A13/BCHE</t>
-  </si>
-  <si>
-    <t>GO:0051960</t>
-  </si>
-  <si>
-    <t>regulation of nervous system development</t>
-  </si>
-  <si>
-    <t>18/247</t>
-  </si>
-  <si>
-    <t>461/18614</t>
-  </si>
-  <si>
-    <t>SOX10/CBLN2/NKX2-2/SOX11/MAPT/SLITRK5/FLRT3/CAMK2B/LHX2/CBLN1/WNT3A/DLX2/SEMA3B/ASCL2/SLITRK1/NCMAP/L1CAM/VAX1</t>
-  </si>
-  <si>
     <t>GO:0009404</t>
   </si>
   <si>
     <t>toxin metabolic process</t>
   </si>
   <si>
-    <t>4/247</t>
-  </si>
-  <si>
-    <t>FMO2/TH/CYP1A1/CYP2A13</t>
-  </si>
-  <si>
-    <t>TLX3/DLX2/ARX/PRDM13</t>
-  </si>
-  <si>
-    <t>14/247</t>
-  </si>
-  <si>
-    <t>CASP14/SCEL/SLITRK5/LGR5/SPINK5/DACT2/LHX2/KRT77/SPRR1B/EREG/FOXQ1/SPRR3/SPRR1A/KRT78</t>
-  </si>
-  <si>
-    <t>GO:0099174</t>
-  </si>
-  <si>
-    <t>regulation of presynapse organization</t>
-  </si>
-  <si>
-    <t>5/247</t>
-  </si>
-  <si>
-    <t>34/18614</t>
-  </si>
-  <si>
-    <t>CBLN2/SLITRK5/CBLN1/WNT3A/SLITRK1</t>
-  </si>
-  <si>
-    <t>GO:1905606</t>
-  </si>
-  <si>
-    <t>regulation of presynapse assembly</t>
-  </si>
-  <si>
-    <t>GO:0098742</t>
-  </si>
-  <si>
-    <t>cell-cell adhesion via plasma-membrane adhesion molecules</t>
-  </si>
-  <si>
-    <t>13/247</t>
-  </si>
-  <si>
-    <t>278/18614</t>
-  </si>
-  <si>
-    <t>PCDHA11/PCDHA12/FLRT3/PCDHA4/PCDH8/CLDN10/PCDHGB1/CBLN1/PCDHA13/IGSF21/PCDHGB5/SLITRK1/L1CAM</t>
-  </si>
-  <si>
-    <t>15/247</t>
-  </si>
-  <si>
-    <t>CASP14/SCEL/COL17A1/LGR5/CST6/SPINK5/LHX2/KRT77/SPRR1B/EREG/SFRP4/FOXQ1/SPRR3/SPRR1A/KRT78</t>
-  </si>
-  <si>
-    <t>11/247</t>
-  </si>
-  <si>
-    <t>FLRT3/LGI1/LHX2/EPHA6/WNT3A/SEMA3B/ARX/LHX9/LHX1/L1CAM/VAX1</t>
-  </si>
-  <si>
-    <t>GO:0051961</t>
-  </si>
-  <si>
-    <t>negative regulation of nervous system development</t>
-  </si>
-  <si>
-    <t>156/18614</t>
-  </si>
-  <si>
-    <t>SOX10/SOX11/LHX2/CBLN1/WNT3A/DLX2/SEMA3B/ASCL2/VAX1</t>
-  </si>
-  <si>
-    <t>8/264</t>
-  </si>
-  <si>
-    <t>CASP14/SCEL/CST6/KRT77/SPRR1B/SPRR2A/SPRR3/SPRR1A</t>
-  </si>
-  <si>
-    <t>8/248</t>
-  </si>
-  <si>
-    <t>PCSK1N/SERPINB7/SPINK4/SERPINA12/SPINK5/SERPINB13/SERPINB4/SERPINA1</t>
-  </si>
-  <si>
-    <t>10/248</t>
-  </si>
-  <si>
-    <t>PCSK1N/SERPINB7/SPINK4/SERPINA12/CST6/SPINK5/SERPINB13/SERPINB4/SERPINA1/SMR3B</t>
-  </si>
-  <si>
-    <t>GO:0019825</t>
-  </si>
-  <si>
-    <t>oxygen binding</t>
-  </si>
-  <si>
-    <t>5/248</t>
-  </si>
-  <si>
-    <t>39/18369</t>
-  </si>
-  <si>
-    <t>CYP26A1/HBA2/HBB/TH/CYP1A1</t>
-  </si>
-  <si>
-    <t>GO:0070330</t>
-  </si>
-  <si>
-    <t>aromatase activity</t>
-  </si>
-  <si>
-    <t>4/248</t>
-  </si>
-  <si>
-    <t>25/18369</t>
-  </si>
-  <si>
-    <t>CYP4F11/CYP4F3/CYP1A1/CYP2A13</t>
-  </si>
-  <si>
-    <t>GO:0004497</t>
-  </si>
-  <si>
-    <t>monooxygenase activity</t>
-  </si>
-  <si>
-    <t>7/248</t>
-  </si>
-  <si>
-    <t>103/18369</t>
-  </si>
-  <si>
-    <t>CYP4F11/CYP4F3/CYP26A1/FMO2/TH/CYP1A1/CYP2A13</t>
-  </si>
-  <si>
-    <t>GO:0005506</t>
-  </si>
-  <si>
-    <t>iron ion binding</t>
-  </si>
-  <si>
-    <t>152/18369</t>
-  </si>
-  <si>
-    <t>CYP4F11/CYP4F3/CYP26A1/HBA2/LCN2/TH/CYP1A1/CYP2A13</t>
-  </si>
-  <si>
     <t>hsa04742</t>
   </si>
   <si>
@@ -836,7 +659,82 @@
     <t>810/116/2786/816/2792</t>
   </si>
   <si>
-    <t>1644/3354/2786/3359/2792</t>
+    <t>12/196</t>
+  </si>
+  <si>
+    <t>SOX10/PRKAA2/CYP26A1/FMO2/UGT2B17/PON3/TH/CYP2A13/CYP1A1/ALDH3A1/BCHE/UGT2B15</t>
+  </si>
+  <si>
+    <t>GO:0031424</t>
+  </si>
+  <si>
+    <t>keratinization</t>
+  </si>
+  <si>
+    <t>8/196</t>
+  </si>
+  <si>
+    <t>83/18614</t>
+  </si>
+  <si>
+    <t>CASP14/KRT4/KRT83/SPRR2D/SPRR1B/SPRR1A/SPRR3/KRT78</t>
+  </si>
+  <si>
+    <t>14/196</t>
+  </si>
+  <si>
+    <t>CASP14/KRT14/KRT4/EREG/SLITRK5/KRT83/LGR5/SPINK5/SPRR2D/SPRR1B/SPRR1A/FOXQ1/SPRR3/KRT78</t>
+  </si>
+  <si>
+    <t>9/196</t>
+  </si>
+  <si>
+    <t>CYP26A1/FMO2/UGT2B17/PON3/CYP2A13/CYP1A1/ALDH3A1/BCHE/UGT2B15</t>
+  </si>
+  <si>
+    <t>CASP14/KRT14/KRT4/EREG/KRT83/SPINK5/SFRP4/SPRR2D/SPRR1B/SPRR1A/SPRR3/KRT78</t>
+  </si>
+  <si>
+    <t>10/196</t>
+  </si>
+  <si>
+    <t>CASP14/KRT14/KRT4/EREG/KRT83/SPRR2D/SPRR1B/SPRR1A/SPRR3/KRT78</t>
+  </si>
+  <si>
+    <t>4/196</t>
+  </si>
+  <si>
+    <t>FMO2/TH/CYP2A13/CYP1A1</t>
+  </si>
+  <si>
+    <t>CASP14/KRT14/KRT4/EREG/KRT83/LGR5/SPINK5/SFRP4/SPRR2D/SPRR1B/SPRR1A/FOXQ1/SPRR3/KRT78</t>
+  </si>
+  <si>
+    <t>GO:0061564</t>
+  </si>
+  <si>
+    <t>axon development</t>
+  </si>
+  <si>
+    <t>15/196</t>
+  </si>
+  <si>
+    <t>479/18614</t>
+  </si>
+  <si>
+    <t>ARX/MAPT/SLITRK5/FOXD1/CRTAC1/NCAM2/TNN/EPHA6/SEMA3B/WNT3A/L1CAM/LHX9/SLITRK1/LHX1/VAX1</t>
+  </si>
+  <si>
+    <t>7/211</t>
+  </si>
+  <si>
+    <t>CASP14/KRT14/SPRR2A/SPRR2D/SPRR1B/SPRR1A/SPRR3</t>
+  </si>
+  <si>
+    <t>5/126</t>
+  </si>
+  <si>
+    <t>SPRR1A/SPRR2A/SPRR3/SPRR1B/KRT77</t>
   </si>
 </sst>
 </file>
@@ -1474,8 +1372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA13556-88A5-8645-9E44-81715FB1E2BE}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:K49"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R54" sqref="R54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2882,19 +2780,19 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>249</v>
+        <v>190</v>
       </c>
       <c r="C45" t="s">
-        <v>249</v>
+        <v>190</v>
       </c>
       <c r="D45" t="s">
-        <v>250</v>
+        <v>191</v>
       </c>
       <c r="E45" t="s">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="F45" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
       <c r="G45">
         <v>3.8424256842930072E-5</v>
@@ -2906,7 +2804,7 @@
         <v>5.5007357164615685E-3</v>
       </c>
       <c r="J45" t="s">
-        <v>253</v>
+        <v>194</v>
       </c>
       <c r="K45">
         <v>6</v>
@@ -2914,19 +2812,19 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>254</v>
+        <v>195</v>
       </c>
       <c r="C46" t="s">
-        <v>254</v>
+        <v>195</v>
       </c>
       <c r="D46" t="s">
-        <v>255</v>
+        <v>196</v>
       </c>
       <c r="E46" t="s">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="F46" t="s">
-        <v>256</v>
+        <v>197</v>
       </c>
       <c r="G46">
         <v>1.9460030718787517E-4</v>
@@ -2938,7 +2836,7 @@
         <v>1.3929285146079485E-2</v>
       </c>
       <c r="J46" t="s">
-        <v>257</v>
+        <v>198</v>
       </c>
       <c r="K46">
         <v>6</v>
@@ -2946,19 +2844,19 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>258</v>
+        <v>199</v>
       </c>
       <c r="C47" t="s">
-        <v>258</v>
+        <v>199</v>
       </c>
       <c r="D47" t="s">
-        <v>259</v>
+        <v>200</v>
       </c>
       <c r="E47" t="s">
-        <v>260</v>
+        <v>201</v>
       </c>
       <c r="F47" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="G47">
         <v>4.8849048063885452E-4</v>
@@ -2970,7 +2868,7 @@
         <v>1.9366544924311172E-2</v>
       </c>
       <c r="J47" t="s">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c r="K47">
         <v>5</v>
@@ -2978,19 +2876,19 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>263</v>
+        <v>204</v>
       </c>
       <c r="C48" t="s">
-        <v>263</v>
+        <v>204</v>
       </c>
       <c r="D48" t="s">
-        <v>264</v>
+        <v>205</v>
       </c>
       <c r="E48" t="s">
-        <v>260</v>
+        <v>201</v>
       </c>
       <c r="F48" t="s">
-        <v>265</v>
+        <v>206</v>
       </c>
       <c r="G48">
         <v>5.4112404935575335E-4</v>
@@ -3002,7 +2900,7 @@
         <v>1.9366544924311172E-2</v>
       </c>
       <c r="J48" t="s">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c r="K48">
         <v>5</v>
@@ -3010,19 +2908,19 @@
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>266</v>
+        <v>207</v>
       </c>
       <c r="C49" t="s">
-        <v>266</v>
+        <v>207</v>
       </c>
       <c r="D49" t="s">
-        <v>267</v>
+        <v>208</v>
       </c>
       <c r="E49" t="s">
-        <v>260</v>
+        <v>201</v>
       </c>
       <c r="F49" t="s">
-        <v>268</v>
+        <v>209</v>
       </c>
       <c r="G49">
         <v>7.2481341984171525E-4</v>
@@ -3034,7 +2932,7 @@
         <v>2.0752552652310165E-2</v>
       </c>
       <c r="J49" t="s">
-        <v>269</v>
+        <v>210</v>
       </c>
       <c r="K49">
         <v>5</v>
@@ -3047,10 +2945,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBF9E99-6750-9C42-B49E-59E2AF8C8F0A}">
-  <dimension ref="A2:K25"/>
+  <dimension ref="A2:K12"/>
   <sheetViews>
     <sheetView zoomScale="113" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3101,22 +2999,22 @@
         <v>186</v>
       </c>
       <c r="E3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F3" t="s">
         <v>187</v>
       </c>
-      <c r="F3" t="s">
-        <v>188</v>
-      </c>
       <c r="G3">
-        <v>8.7268222888070653E-6</v>
+        <v>7.9291126708873566E-7</v>
       </c>
       <c r="H3">
-        <v>2.3021357197873037E-2</v>
+        <v>1.8371754058446005E-3</v>
       </c>
       <c r="I3">
-        <v>2.1716008306042003E-2</v>
+        <v>1.7143576237897507E-3</v>
       </c>
       <c r="J3" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="K3">
         <v>12</v>
@@ -3124,772 +3022,317 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>213</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>213</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="E4" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="G4">
-        <v>3.8992960250781216E-5</v>
+        <v>2.630262227597605E-6</v>
       </c>
       <c r="H4">
-        <v>2.6470061971606069E-2</v>
+        <v>3.0471587906718252E-3</v>
       </c>
       <c r="I4">
-        <v>2.4969165835711564E-2</v>
+        <v>2.8434519028870953E-3</v>
       </c>
       <c r="J4" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="K4">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>193</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="F5" t="s">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="G5">
-        <v>4.6814037603726938E-5</v>
+        <v>5.0872163348859206E-6</v>
       </c>
       <c r="H5">
-        <v>2.6470061971606069E-2</v>
+        <v>3.5900400612226377E-3</v>
       </c>
       <c r="I5">
-        <v>2.4969165835711564E-2</v>
+        <v>3.3500407903828901E-3</v>
       </c>
       <c r="J5" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="K5">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>197</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6">
-        <v>6.2864046690738257E-5</v>
+        <v>6.1977385605915196E-6</v>
       </c>
       <c r="H6">
-        <v>2.6470061971606069E-2</v>
+        <v>3.5900400612226377E-3</v>
       </c>
       <c r="I6">
-        <v>2.4969165835711564E-2</v>
+        <v>3.3500407903828901E-3</v>
       </c>
       <c r="J6" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="K6">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G7">
-        <v>6.2864046690738257E-5</v>
+        <v>9.441596609918278E-6</v>
       </c>
       <c r="H7">
-        <v>2.6470061971606069E-2</v>
+        <v>4.3752358690361294E-3</v>
       </c>
       <c r="I7">
-        <v>2.4969165835711564E-2</v>
+        <v>4.0827451445836094E-3</v>
       </c>
       <c r="J7" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="K7">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G8">
-        <v>6.7463146629769444E-5</v>
+        <v>1.6093354955123474E-5</v>
       </c>
       <c r="H8">
-        <v>2.6470061971606069E-2</v>
+        <v>6.2147172385035154E-3</v>
       </c>
       <c r="I8">
-        <v>2.4969165835711564E-2</v>
+        <v>5.799254575056775E-3</v>
       </c>
       <c r="J8" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="K8">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="D9" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="E9" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="F9" t="s">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="G9">
-        <v>8.0273121976060866E-5</v>
+        <v>2.5486006366951199E-5</v>
       </c>
       <c r="H9">
-        <v>2.6470061971606069E-2</v>
+        <v>8.4358681074608467E-3</v>
       </c>
       <c r="I9">
-        <v>2.4969165835711564E-2</v>
+        <v>7.8719183575515442E-3</v>
       </c>
       <c r="J9" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="K9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>209</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>209</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="F10" t="s">
-        <v>207</v>
+        <v>31</v>
       </c>
       <c r="G10">
-        <v>8.0273121976060866E-5</v>
+        <v>4.5690485237631886E-5</v>
       </c>
       <c r="H10">
-        <v>2.6470061971606069E-2</v>
+        <v>1.3233106786949136E-2</v>
       </c>
       <c r="I10">
-        <v>2.4969165835711564E-2</v>
+        <v>1.2348454826065251E-2</v>
       </c>
       <c r="J10" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="K10">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="D11" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="E11" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="F11" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="G11">
-        <v>9.2324571590544487E-5</v>
+        <v>1.7477869905444579E-4</v>
       </c>
       <c r="H11">
-        <v>2.7061357761761815E-2</v>
+        <v>4.4995805078794547E-2</v>
       </c>
       <c r="I11">
-        <v>2.5526934180122474E-2</v>
+        <v>4.1987771679278564E-2</v>
       </c>
       <c r="J11" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="K11">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="G12">
-        <v>1.5500235536768569E-4</v>
+        <v>3.3087984435667103E-6</v>
       </c>
       <c r="H12">
-        <v>4.088962134599549E-2</v>
+        <v>8.0734682023027727E-4</v>
       </c>
       <c r="I12">
-        <v>3.8571112430443047E-2</v>
+        <v>7.5928216915530826E-4</v>
       </c>
       <c r="J12" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="K12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" t="s">
-        <v>218</v>
-      </c>
-      <c r="F13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13">
-        <v>2.1758427558274813E-4</v>
-      </c>
-      <c r="H13">
-        <v>4.7832276582274132E-2</v>
-      </c>
-      <c r="I13">
-        <v>4.5120107673475136E-2</v>
-      </c>
-      <c r="J13" t="s">
-        <v>219</v>
-      </c>
-      <c r="K13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" t="s">
-        <v>218</v>
-      </c>
-      <c r="F14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14">
-        <v>2.1758427558274813E-4</v>
-      </c>
-      <c r="H14">
-        <v>4.7832276582274132E-2</v>
-      </c>
-      <c r="I14">
-        <v>4.5120107673475136E-2</v>
-      </c>
-      <c r="J14" t="s">
-        <v>219</v>
-      </c>
-      <c r="K14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>220</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>220</v>
-      </c>
-      <c r="D15" t="s">
-        <v>221</v>
-      </c>
-      <c r="E15" t="s">
-        <v>190</v>
-      </c>
-      <c r="F15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G15">
-        <v>2.4204940383642633E-4</v>
-      </c>
-      <c r="H15">
-        <v>4.9117409793884056E-2</v>
-      </c>
-      <c r="I15">
-        <v>4.633237171411432E-2</v>
-      </c>
-      <c r="J15" t="s">
-        <v>223</v>
-      </c>
-      <c r="K15">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" t="s">
-        <v>224</v>
-      </c>
-      <c r="F16" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16">
-        <v>1.230746828539885E-6</v>
-      </c>
-      <c r="H16">
-        <v>3.4337836516262792E-4</v>
-      </c>
-      <c r="I16">
-        <v>3.1092551457849731E-4</v>
-      </c>
-      <c r="J16" t="s">
-        <v>225</v>
-      </c>
-      <c r="K16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" t="s">
-        <v>226</v>
-      </c>
-      <c r="F17" t="s">
-        <v>105</v>
-      </c>
-      <c r="G17">
-        <v>3.4552009593011217E-5</v>
-      </c>
-      <c r="H17">
-        <v>1.4546396038657722E-2</v>
-      </c>
-      <c r="I17">
-        <v>1.3347986863826438E-2</v>
-      </c>
-      <c r="J17" t="s">
-        <v>227</v>
-      </c>
-      <c r="K17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" t="s">
-        <v>228</v>
-      </c>
-      <c r="F18" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18">
-        <v>1.2456918441325124E-4</v>
-      </c>
-      <c r="H18">
-        <v>1.814749795300067E-2</v>
-      </c>
-      <c r="I18">
-        <v>1.6652410923243519E-2</v>
-      </c>
-      <c r="J18" t="s">
-        <v>229</v>
-      </c>
-      <c r="K18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>230</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>230</v>
-      </c>
-      <c r="D19" t="s">
-        <v>231</v>
-      </c>
-      <c r="E19" t="s">
-        <v>232</v>
-      </c>
-      <c r="F19" t="s">
-        <v>233</v>
-      </c>
-      <c r="G19">
-        <v>1.7049840322781018E-4</v>
-      </c>
-      <c r="H19">
-        <v>1.814749795300067E-2</v>
-      </c>
-      <c r="I19">
-        <v>1.6652410923243519E-2</v>
-      </c>
-      <c r="J19" t="s">
-        <v>234</v>
-      </c>
-      <c r="K19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" t="s">
-        <v>228</v>
-      </c>
-      <c r="F20" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20">
-        <v>1.7242278340143155E-4</v>
-      </c>
-      <c r="H20">
-        <v>1.814749795300067E-2</v>
-      </c>
-      <c r="I20">
-        <v>1.6652410923243519E-2</v>
-      </c>
-      <c r="J20" t="s">
-        <v>229</v>
-      </c>
-      <c r="K20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" t="s">
-        <v>228</v>
-      </c>
-      <c r="F21" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21">
-        <v>2.3489873951540826E-4</v>
-      </c>
-      <c r="H21">
-        <v>1.9778473867197378E-2</v>
-      </c>
-      <c r="I21">
-        <v>1.8149018400453649E-2</v>
-      </c>
-      <c r="J21" t="s">
-        <v>229</v>
-      </c>
-      <c r="K21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>235</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" t="s">
-        <v>235</v>
-      </c>
-      <c r="D22" t="s">
-        <v>236</v>
-      </c>
-      <c r="E22" t="s">
-        <v>237</v>
-      </c>
-      <c r="F22" t="s">
-        <v>238</v>
-      </c>
-      <c r="G22">
-        <v>3.2815946380861284E-4</v>
-      </c>
-      <c r="H22">
-        <v>2.3025855710571003E-2</v>
-      </c>
-      <c r="I22">
-        <v>2.1128863722414199E-2</v>
-      </c>
-      <c r="J22" t="s">
-        <v>239</v>
-      </c>
-      <c r="K22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>240</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" t="s">
-        <v>240</v>
-      </c>
-      <c r="D23" t="s">
-        <v>241</v>
-      </c>
-      <c r="E23" t="s">
-        <v>242</v>
-      </c>
-      <c r="F23" t="s">
-        <v>243</v>
-      </c>
-      <c r="G23">
-        <v>4.9520567182345524E-4</v>
-      </c>
-      <c r="H23">
-        <v>2.9783083976810665E-2</v>
-      </c>
-      <c r="I23">
-        <v>2.7329395723189185E-2</v>
-      </c>
-      <c r="J23" t="s">
-        <v>244</v>
-      </c>
-      <c r="K23">
         <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>245</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>245</v>
-      </c>
-      <c r="D24" t="s">
-        <v>246</v>
-      </c>
-      <c r="E24" t="s">
-        <v>226</v>
-      </c>
-      <c r="F24" t="s">
-        <v>247</v>
-      </c>
-      <c r="G24">
-        <v>1.0890363609195861E-3</v>
-      </c>
-      <c r="H24">
-        <v>5.5167198750136051E-2</v>
-      </c>
-      <c r="I24">
-        <v>5.0622232632328873E-2</v>
-      </c>
-      <c r="J24" t="s">
-        <v>248</v>
-      </c>
-      <c r="K24">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" t="s">
-        <v>228</v>
-      </c>
-      <c r="F25" t="s">
-        <v>101</v>
-      </c>
-      <c r="G25">
-        <v>1.1793462915706044E-3</v>
-      </c>
-      <c r="H25">
-        <v>5.5167198750136051E-2</v>
-      </c>
-      <c r="I25">
-        <v>5.0622232632328873E-2</v>
-      </c>
-      <c r="J25" t="s">
-        <v>229</v>
-      </c>
-      <c r="K25">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3899,79 +3342,89 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D255E76F-4E4E-5441-9DB5-9812B93916E1}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E1" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>235</v>
       </c>
       <c r="F2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2">
+        <v>3.9208801581509619E-5</v>
+      </c>
+      <c r="H2">
+        <v>7.5280899036498468E-3</v>
+      </c>
+      <c r="I2">
+        <v>6.8924945938022173E-3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>236</v>
+      </c>
+      <c r="K2">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D3" s="2">
-        <v>17654</v>
-      </c>
-      <c r="E3" t="s">
-        <v>256</v>
-      </c>
-      <c r="F3">
-        <v>4.1399999999999998E-4</v>
-      </c>
-      <c r="G3">
-        <v>4.4756999999999998E-2</v>
-      </c>
-      <c r="H3">
-        <v>4.2313999999999997E-2</v>
-      </c>
-      <c r="I3" t="s">
-        <v>270</v>
-      </c>
-      <c r="J3">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E4" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
